--- a/beta.xlsx
+++ b/beta.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\ToleranceAndRate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0DD5C-B9FF-4005-877B-06074E4DA2F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,8 +28,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,14 +92,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -152,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,27 +170,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,24 +204,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,16 +379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,180 +397,224 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.99999999999999756</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.99999993250964647</v>
+        <v>0.9999999999966862</v>
       </c>
       <c r="C3">
-        <v>0.99999999999993627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.99999999999026357</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0.99995775173313617</v>
+        <v>0.9999999994885962</v>
       </c>
       <c r="C4">
-        <v>0.99999998727038331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.99999995891214843</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0.99902835582085725</v>
+        <v>0.9999999800647472</v>
       </c>
       <c r="C5">
-        <v>0.9999954237834261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999999999999938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.99999563129643776</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.99424860163638762</v>
+        <v>0.9999996882692299</v>
       </c>
       <c r="C6">
-        <v>0.99987555959348362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999999999988298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.99992184880680446</v>
+        <v>0.9999999999999947</v>
       </c>
       <c r="B7">
-        <v>0.98245104980852327</v>
+        <v>0.9999974050122118</v>
       </c>
       <c r="C7">
-        <v>0.99903315171523244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999999999347771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.99946959554595383</v>
+        <v>0.9999999999995179</v>
       </c>
       <c r="B8">
-        <v>0.96277914962022737</v>
+        <v>0.9999862177925158</v>
       </c>
       <c r="C8">
-        <v>0.9962052348324073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999999984632684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.99797088531379985</v>
+        <v>0.9999999999824301</v>
       </c>
       <c r="B9">
-        <v>0.93647068225328711</v>
+        <v>0.9999473315811047</v>
       </c>
       <c r="C9">
-        <v>0.99006619439599008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999999807131752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.99459233568609617</v>
+        <v>0.9999999996733988</v>
       </c>
       <c r="B10">
-        <v>0.90558116946664602</v>
+        <v>0.9998427385027737</v>
       </c>
       <c r="C10">
-        <v>0.97987148626392218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999998489346804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.98866025947260461</v>
+        <v>0.9999999963684467</v>
       </c>
       <c r="B11">
-        <v>0.8721001041112495</v>
+        <v>0.9996111870913622</v>
       </c>
       <c r="C11">
-        <v>0.96560282005676146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999991745211714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.97984927047855575</v>
+        <v>0.9999999729077995</v>
       </c>
       <c r="B12">
-        <v>0.83760411720852446</v>
+        <v>0.9991700034048185</v>
       </c>
       <c r="C12">
-        <v>0.94776312391651985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999965900721124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.96818594433226579</v>
+        <v>0.9999998524591402</v>
       </c>
       <c r="B13">
-        <v>0.80321338960195732</v>
+        <v>0.9984223844492277</v>
       </c>
       <c r="C13">
-        <v>0.92710351635533983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999887042917748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.95395161148414243</v>
+        <v>0.9999993752330527</v>
       </c>
       <c r="B14">
-        <v>0.76966445258398486</v>
+        <v>0.9972676552914181</v>
       </c>
       <c r="C14">
-        <v>0.90441929545437061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999686383268562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.93756692853680601</v>
+        <v>0.9999978416756534</v>
       </c>
       <c r="B15">
-        <v>0.73740682397758572</v>
+        <v>0.9956115611820298</v>
       </c>
       <c r="C15">
-        <v>0.88043541267232173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9999245254214284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.91949918855934887</v>
+        <v>0.9999936875307205</v>
       </c>
       <c r="B16">
-        <v>0.706688569266126</v>
+        <v>0.9933744696648432</v>
       </c>
       <c r="C16">
-        <v>0.85575856280640394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9998384209652433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.90020192251773179</v>
+        <v>0.9999839104957333</v>
       </c>
       <c r="B17">
-        <v>0.67762218034810928</v>
+        <v>0.9904965287643837</v>
       </c>
       <c r="C17">
-        <v>0.83086855529732873</v>
+        <v>0.9996859767395745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>0.9999634326837312</v>
+      </c>
+      <c r="B18">
+        <v>0.9869397892606662</v>
+      </c>
+      <c r="C18">
+        <v>0.9994370099913599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>0.9999245254214284</v>
+      </c>
+      <c r="B19">
+        <v>0.9826878575331544</v>
+      </c>
+      <c r="C19">
+        <v>0.9990568632344143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>0.999856423820797</v>
+      </c>
+      <c r="B20">
+        <v>0.9777438446396887</v>
+      </c>
+      <c r="C20">
+        <v>0.9985082917451225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>0.9997452207495783</v>
+      </c>
+      <c r="B21">
+        <v>0.9721273443362517</v>
+      </c>
+      <c r="C21">
+        <v>0.9977535601949936</v>
       </c>
     </row>
   </sheetData>
